--- a/biology/Botanique/Ceratophyllum/Ceratophyllum.xlsx
+++ b/biology/Botanique/Ceratophyllum/Ceratophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratophyllum (les Cératophylles ou Cornifles) est un genre de plantes aquatiques vasculaires de la famille des Ceratophyllaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre semblent pouvoir prendre des formes très variables et taxonomiquement difficiles à déterminer.
 Deux espèces cosmopolites sont bien définies et connues : Ceratophyllum demersum et C. submersum.
@@ -544,12 +558,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les plantes de cette famille sont aquatiques strictes et dépourvues de racines, de stomates, de cuticules et de bois ou autres structures ligneuses. Elles ne supportent qu'une courte émersion.
 Les fleurs se forment et ne libèrent leur pollen que sous l'eau.
 Leur pollen est lisse (sans ouverture) et doté d'une exine (cuticule externe) très fine.
-Ce genre est associé aux Nymphaeaceae et son embryon présente quelques similitudes avec celui du genre Nelumbo[1].
+Ce genre est associé aux Nymphaeaceae et son embryon présente quelques similitudes avec celui du genre Nelumbo.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (26 mai 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (26 mai 2015) :
 Ceratophyllum demersum L.
 Ceratophyllum echinatum A.Gray
 Ceratophyllum muricatum Cham.
